--- a/back-end/glassesSKU.xlsx
+++ b/back-end/glassesSKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Desktop\gaboor-optic\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1BE42F-CF8E-450D-83EE-E5F2724A123B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57651CEC-0EB0-4293-A88D-562E05E50EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="700">
   <si>
     <t>ID</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Ray-Ban Original Wayfarer Sunglasses  Tortoise Crystal Brown Polarized Frame / Polarized 50mm</t>
   </si>
   <si>
-    <t>???????</t>
-  </si>
-  <si>
     <t>rayban_wayfarer_denimOrange_orangeDegrade</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>Wsunglass W925 Men Women Sunglasses 58mm RB3025 (Green L0205  58)</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>rayban_round_cuivre_pinkBrownDegrade</t>
   </si>
   <si>
@@ -2123,6 +2117,9 @@
   </si>
   <si>
     <t>Wayferer Style ( Black &amp; Silver)</t>
+  </si>
+  <si>
+    <t>سفید</t>
   </si>
 </sst>
 </file>
@@ -2618,10 +2615,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2979,15 +2983,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="47.44140625" customWidth="1"/>
     <col min="2" max="2" width="100.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2997,13 +3002,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3014,14 +3019,14 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>689</v>
-      </c>
-      <c r="E2" t="s">
-        <v>684</v>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3031,5360 +3036,5740 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>689</v>
-      </c>
-      <c r="E3" t="s">
-        <v>685</v>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>689</v>
-      </c>
-      <c r="E4" t="s">
-        <v>686</v>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>688</v>
-      </c>
-      <c r="E5" t="s">
-        <v>687</v>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>688</v>
-      </c>
-      <c r="E6" t="s">
-        <v>691</v>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>689</v>
-      </c>
-      <c r="E7" t="s">
-        <v>692</v>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>688</v>
-      </c>
-      <c r="E8" t="s">
-        <v>693</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>688</v>
-      </c>
-      <c r="E9" t="s">
-        <v>694</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>688</v>
-      </c>
-      <c r="E10" t="s">
-        <v>693</v>
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="E11" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>689</v>
-      </c>
-      <c r="E12" t="s">
-        <v>686</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>689</v>
-      </c>
-      <c r="E13" t="s">
-        <v>692</v>
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>690</v>
-      </c>
-      <c r="E14" t="s">
-        <v>685</v>
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>689</v>
-      </c>
-      <c r="E15" t="s">
-        <v>692</v>
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>689</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>689</v>
-      </c>
-      <c r="E17" t="s">
-        <v>695</v>
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>690</v>
-      </c>
-      <c r="E18" t="s">
-        <v>696</v>
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>690</v>
-      </c>
-      <c r="E19" t="s">
-        <v>685</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>690</v>
-      </c>
-      <c r="E20" t="s">
-        <v>687</v>
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>690</v>
-      </c>
-      <c r="E21" t="s">
-        <v>696</v>
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>689</v>
-      </c>
-      <c r="E22" t="s">
-        <v>692</v>
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>690</v>
-      </c>
-      <c r="E23" t="s">
-        <v>687</v>
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>689</v>
-      </c>
-      <c r="E24" t="s">
-        <v>695</v>
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>690</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>689</v>
-      </c>
-      <c r="E26" t="s">
-        <v>695</v>
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>689</v>
-      </c>
-      <c r="E27" t="s">
-        <v>687</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>688</v>
-      </c>
-      <c r="E28" t="s">
-        <v>696</v>
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>689</v>
-      </c>
-      <c r="E29" t="s">
-        <v>692</v>
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>689</v>
-      </c>
-      <c r="E30" t="s">
-        <v>696</v>
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>689</v>
-      </c>
-      <c r="E31" t="s">
-        <v>684</v>
+        <v>67</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>690</v>
-      </c>
-      <c r="E32" t="s">
-        <v>685</v>
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>690</v>
-      </c>
-      <c r="E33" t="s">
-        <v>695</v>
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>689</v>
-      </c>
-      <c r="E34" t="s">
-        <v>696</v>
+        <v>73</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>690</v>
-      </c>
-      <c r="E35" t="s">
-        <v>696</v>
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>689</v>
-      </c>
-      <c r="E36" t="s">
-        <v>696</v>
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="E37" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>689</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>689</v>
-      </c>
-      <c r="E39" t="s">
-        <v>695</v>
+        <v>83</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>689</v>
-      </c>
-      <c r="E40" t="s">
-        <v>694</v>
+        <v>85</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>689</v>
-      </c>
-      <c r="E41" t="s">
-        <v>694</v>
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="E42" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>690</v>
-      </c>
-      <c r="E43" t="s">
-        <v>687</v>
+        <v>90</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>689</v>
-      </c>
-      <c r="E44" t="s">
-        <v>685</v>
+        <v>92</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>688</v>
-      </c>
-      <c r="E45" t="s">
-        <v>693</v>
+        <v>94</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>688</v>
-      </c>
-      <c r="E46" t="s">
-        <v>696</v>
+        <v>96</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>690</v>
-      </c>
-      <c r="E47" t="s">
-        <v>687</v>
+        <v>98</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>690</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>689</v>
-      </c>
-      <c r="E50" t="s">
-        <v>695</v>
+        <v>104</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>689</v>
-      </c>
-      <c r="E51" t="s">
-        <v>696</v>
+        <v>106</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>690</v>
-      </c>
-      <c r="E52" t="s">
-        <v>697</v>
+        <v>108</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>689</v>
-      </c>
-      <c r="E53" t="s">
-        <v>692</v>
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>689</v>
-      </c>
-      <c r="E55" t="s">
-        <v>692</v>
+        <v>114</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>690</v>
-      </c>
-      <c r="E56" t="s">
-        <v>685</v>
+        <v>116</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>690</v>
-      </c>
-      <c r="E57" t="s">
-        <v>696</v>
+        <v>118</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>688</v>
-      </c>
-      <c r="E58" t="s">
-        <v>687</v>
+        <v>120</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>690</v>
-      </c>
-      <c r="E59" t="s">
-        <v>687</v>
+        <v>122</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="E60" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>689</v>
-      </c>
-      <c r="E61" t="s">
-        <v>692</v>
+        <v>126</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
-      </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>690</v>
-      </c>
-      <c r="E62" t="s">
-        <v>695</v>
+        <v>128</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
-      </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>688</v>
-      </c>
-      <c r="E63" t="s">
-        <v>696</v>
+        <v>130</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>690</v>
-      </c>
-      <c r="E65" t="s">
-        <v>684</v>
+        <v>67</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" t="s">
-        <v>690</v>
-      </c>
-      <c r="E66" t="s">
-        <v>695</v>
+        <v>135</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>689</v>
-      </c>
-      <c r="E67" t="s">
-        <v>694</v>
+        <v>137</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>689</v>
-      </c>
-      <c r="E68" t="s">
-        <v>685</v>
+        <v>139</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>689</v>
-      </c>
-      <c r="E69" t="s">
-        <v>687</v>
+        <v>141</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
-      </c>
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" t="s">
-        <v>688</v>
-      </c>
-      <c r="E70" t="s">
-        <v>692</v>
+        <v>143</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" t="s">
-        <v>689</v>
-      </c>
-      <c r="E71" t="s">
-        <v>696</v>
+        <v>145</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" t="s">
-        <v>690</v>
-      </c>
-      <c r="E72" t="s">
-        <v>687</v>
+        <v>90</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
-      </c>
-      <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" t="s">
-        <v>690</v>
-      </c>
-      <c r="E73" t="s">
-        <v>697</v>
+        <v>148</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>152</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" t="s">
-        <v>688</v>
-      </c>
-      <c r="E74" t="s">
-        <v>692</v>
+        <v>150</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>688</v>
-      </c>
-      <c r="E75" t="s">
-        <v>697</v>
+        <v>152</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
-      </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>689</v>
-      </c>
-      <c r="E76" t="s">
-        <v>692</v>
+        <v>154</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
-      </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>688</v>
-      </c>
-      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>686</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
-      </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>688</v>
-      </c>
-      <c r="E78" t="s">
-        <v>696</v>
+        <v>158</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
-      </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>689</v>
-      </c>
-      <c r="E79" t="s">
-        <v>684</v>
+        <v>67</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" t="s">
-        <v>690</v>
-      </c>
-      <c r="E80" t="s">
-        <v>685</v>
+        <v>69</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>688</v>
-      </c>
-      <c r="E81" t="s">
-        <v>692</v>
+        <v>162</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82" t="s">
-        <v>166</v>
-      </c>
-      <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" t="s">
-        <v>689</v>
-      </c>
-      <c r="E82" t="s">
-        <v>692</v>
+        <v>164</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" t="s">
-        <v>168</v>
-      </c>
-      <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>688</v>
-      </c>
-      <c r="E83" t="s">
-        <v>696</v>
+        <v>166</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" t="s">
-        <v>689</v>
-      </c>
-      <c r="E84" t="s">
-        <v>684</v>
+        <v>67</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" t="s">
-        <v>689</v>
-      </c>
-      <c r="E85" t="s">
-        <v>698</v>
+        <v>169</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" t="s">
-        <v>689</v>
-      </c>
-      <c r="E86" t="s">
-        <v>692</v>
+        <v>171</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>690</v>
-      </c>
-      <c r="E87" t="s">
-        <v>695</v>
+        <v>173</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>690</v>
-      </c>
-      <c r="E88" t="s">
-        <v>22</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
-      </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>689</v>
-      </c>
-      <c r="E89" t="s">
-        <v>8</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>690</v>
-      </c>
-      <c r="E90" t="s">
-        <v>11</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
-      </c>
-      <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" t="s">
-        <v>688</v>
-      </c>
-      <c r="E91" t="s">
-        <v>22</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
-      </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>690</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>186</v>
-      </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>688</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B94" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
+        <v>186</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="E94" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B95" t="s">
-        <v>190</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>689</v>
-      </c>
-      <c r="E95" t="s">
-        <v>22</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
-      </c>
-      <c r="C96" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" t="s">
-        <v>688</v>
-      </c>
-      <c r="E96" t="s">
-        <v>695</v>
+        <v>190</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>194</v>
-      </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>688</v>
-      </c>
-      <c r="E97" t="s">
-        <v>14</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B98" t="s">
-        <v>196</v>
-      </c>
-      <c r="C98" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" t="s">
-        <v>689</v>
-      </c>
-      <c r="E98" t="s">
-        <v>22</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
-      </c>
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" t="s">
-        <v>690</v>
-      </c>
-      <c r="E99" t="s">
-        <v>685</v>
+        <v>196</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B100" t="s">
-        <v>200</v>
-      </c>
-      <c r="C100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" t="s">
-        <v>688</v>
-      </c>
-      <c r="E100" t="s">
-        <v>17</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B101" t="s">
-        <v>202</v>
-      </c>
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" t="s">
-        <v>689</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
-      </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>689</v>
-      </c>
-      <c r="E102" t="s">
-        <v>17</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B103" t="s">
-        <v>206</v>
-      </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" t="s">
-        <v>689</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
-      </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" t="s">
-        <v>688</v>
-      </c>
-      <c r="E104" t="s">
-        <v>11</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>210</v>
-      </c>
-      <c r="C105" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" t="s">
-        <v>690</v>
-      </c>
-      <c r="E105" t="s">
-        <v>17</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
-      </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>689</v>
-      </c>
-      <c r="E106" t="s">
-        <v>14</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>690</v>
-      </c>
-      <c r="E107" t="s">
-        <v>11</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" t="s">
-        <v>690</v>
-      </c>
-      <c r="E108" t="s">
-        <v>22</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
-      </c>
-      <c r="C109" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" t="s">
-        <v>689</v>
-      </c>
-      <c r="E109" t="s">
-        <v>695</v>
+        <v>216</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B110" t="s">
-        <v>220</v>
-      </c>
-      <c r="C110" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" t="s">
-        <v>688</v>
-      </c>
-      <c r="E110" t="s">
-        <v>11</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E110" s="3"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B111" t="s">
-        <v>222</v>
-      </c>
-      <c r="C111" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" t="s">
-        <v>690</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
-      </c>
-      <c r="C112" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" t="s">
-        <v>689</v>
-      </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B113" t="s">
-        <v>226</v>
-      </c>
-      <c r="C113" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" t="s">
-        <v>690</v>
-      </c>
-      <c r="E113" t="s">
-        <v>17</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B114" t="s">
-        <v>228</v>
-      </c>
-      <c r="C114" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" t="s">
-        <v>690</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B115" t="s">
-        <v>230</v>
-      </c>
-      <c r="C115" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" t="s">
-        <v>689</v>
-      </c>
-      <c r="E115" t="s">
-        <v>22</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
-        <v>232</v>
-      </c>
-      <c r="C116" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" t="s">
-        <v>22</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
-      </c>
-      <c r="C117" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" t="s">
-        <v>688</v>
-      </c>
-      <c r="E117" t="s">
-        <v>17</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
-      </c>
-      <c r="C118" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" t="s">
-        <v>689</v>
-      </c>
-      <c r="E118" t="s">
-        <v>695</v>
+        <v>234</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B119" t="s">
-        <v>238</v>
-      </c>
-      <c r="C119" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" t="s">
-        <v>17</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B120" t="s">
-        <v>240</v>
-      </c>
-      <c r="C120" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B121" t="s">
-        <v>242</v>
-      </c>
-      <c r="C121" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" t="s">
-        <v>8</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
-      </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" t="s">
-        <v>688</v>
-      </c>
-      <c r="E122" t="s">
-        <v>22</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
-      </c>
-      <c r="C123" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" t="s">
-        <v>8</v>
+        <v>244</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
-      </c>
-      <c r="C124" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" t="s">
-        <v>690</v>
-      </c>
-      <c r="E124" t="s">
-        <v>695</v>
+        <v>246</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
-      </c>
-      <c r="C125" t="s">
-        <v>7</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B126" t="s">
-        <v>251</v>
-      </c>
-      <c r="C126" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" t="s">
-        <v>17</v>
+        <v>249</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
+        <v>250</v>
+      </c>
+      <c r="B127" t="s">
+        <v>251</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B127" t="s">
-        <v>253</v>
-      </c>
-      <c r="C127" t="s">
-        <v>254</v>
-      </c>
-      <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" t="s">
-        <v>17</v>
+      <c r="D127" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B128" t="s">
-        <v>256</v>
-      </c>
-      <c r="C128" t="s">
         <v>254</v>
       </c>
-      <c r="D128" t="s">
-        <v>689</v>
-      </c>
-      <c r="E128" t="s">
-        <v>695</v>
+      <c r="C128" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
-      </c>
-      <c r="C129" t="s">
-        <v>254</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129" t="s">
-        <v>17</v>
+        <v>256</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B130" t="s">
-        <v>260</v>
-      </c>
-      <c r="C130" t="s">
-        <v>254</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" t="s">
-        <v>14</v>
+        <v>258</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131" t="s">
-        <v>254</v>
-      </c>
-      <c r="D131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" t="s">
-        <v>22</v>
+        <v>260</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
-      </c>
-      <c r="C132" t="s">
-        <v>254</v>
-      </c>
-      <c r="D132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" t="s">
-        <v>22</v>
+        <v>262</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
-      </c>
-      <c r="C133" t="s">
-        <v>254</v>
-      </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133" t="s">
-        <v>17</v>
+        <v>264</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
-      </c>
-      <c r="C134" t="s">
-        <v>254</v>
-      </c>
-      <c r="D134" t="s">
-        <v>689</v>
-      </c>
-      <c r="E134" t="s">
-        <v>695</v>
+        <v>266</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B135" t="s">
-        <v>270</v>
-      </c>
-      <c r="C135" t="s">
-        <v>254</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" t="s">
-        <v>14</v>
+        <v>268</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
-      </c>
-      <c r="C136" t="s">
-        <v>254</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B137" t="s">
-        <v>274</v>
-      </c>
-      <c r="C137" t="s">
-        <v>254</v>
-      </c>
-      <c r="D137" t="s">
-        <v>689</v>
-      </c>
-      <c r="E137" t="s">
-        <v>695</v>
+        <v>272</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
-      </c>
-      <c r="C138" t="s">
-        <v>254</v>
-      </c>
-      <c r="D138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138" t="s">
-        <v>22</v>
+        <v>274</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
-      </c>
-      <c r="C139" t="s">
-        <v>254</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139" t="s">
-        <v>698</v>
+        <v>276</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
-      </c>
-      <c r="C140" t="s">
-        <v>254</v>
-      </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" t="s">
-        <v>17</v>
+        <v>278</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B141" t="s">
-        <v>282</v>
-      </c>
-      <c r="C141" t="s">
-        <v>254</v>
-      </c>
-      <c r="D141" t="s">
-        <v>689</v>
-      </c>
-      <c r="E141" t="s">
-        <v>695</v>
+        <v>280</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B142" t="s">
-        <v>284</v>
-      </c>
-      <c r="C142" t="s">
-        <v>254</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142" t="s">
-        <v>22</v>
+        <v>282</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B143" t="s">
-        <v>286</v>
-      </c>
-      <c r="C143" t="s">
-        <v>254</v>
-      </c>
-      <c r="D143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143" t="s">
-        <v>11</v>
+        <v>284</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B144" t="s">
-        <v>288</v>
-      </c>
-      <c r="C144" t="s">
-        <v>254</v>
-      </c>
-      <c r="D144" t="s">
+        <v>286</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E144" t="s">
-        <v>14</v>
+      <c r="E144" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B145" t="s">
-        <v>290</v>
-      </c>
-      <c r="C145" t="s">
-        <v>254</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" t="s">
-        <v>11</v>
+        <v>288</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B146" t="s">
-        <v>292</v>
-      </c>
-      <c r="C146" t="s">
-        <v>254</v>
-      </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146" t="s">
-        <v>22</v>
+        <v>290</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B147" t="s">
-        <v>294</v>
-      </c>
-      <c r="C147" t="s">
-        <v>254</v>
-      </c>
-      <c r="D147" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147" t="s">
-        <v>17</v>
+        <v>292</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B148" t="s">
-        <v>296</v>
-      </c>
-      <c r="C148" t="s">
-        <v>254</v>
-      </c>
-      <c r="D148" t="s">
+        <v>294</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E148" t="s">
-        <v>14</v>
+      <c r="E148" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B149" t="s">
-        <v>298</v>
-      </c>
-      <c r="C149" t="s">
-        <v>254</v>
-      </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" t="s">
-        <v>17</v>
+        <v>296</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>300</v>
-      </c>
-      <c r="C150" t="s">
-        <v>254</v>
-      </c>
-      <c r="D150" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150" t="s">
-        <v>11</v>
+        <v>298</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B151" t="s">
-        <v>302</v>
-      </c>
-      <c r="C151" t="s">
-        <v>254</v>
-      </c>
-      <c r="D151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" t="s">
-        <v>17</v>
+        <v>300</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B152" t="s">
-        <v>304</v>
-      </c>
-      <c r="C152" t="s">
-        <v>254</v>
-      </c>
-      <c r="D152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" t="s">
-        <v>11</v>
+        <v>302</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B153" t="s">
-        <v>306</v>
-      </c>
-      <c r="C153" t="s">
-        <v>254</v>
+        <v>304</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B154" t="s">
-        <v>308</v>
-      </c>
-      <c r="C154" t="s">
-        <v>254</v>
-      </c>
-      <c r="D154" t="s">
-        <v>688</v>
-      </c>
-      <c r="E154" t="s">
-        <v>696</v>
+        <v>306</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B155" t="s">
-        <v>310</v>
-      </c>
-      <c r="C155" t="s">
-        <v>254</v>
-      </c>
-      <c r="D155" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155" t="s">
-        <v>17</v>
+        <v>308</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B156" t="s">
-        <v>312</v>
-      </c>
-      <c r="C156" t="s">
-        <v>254</v>
-      </c>
-      <c r="D156" t="s">
+        <v>310</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E156" t="s">
-        <v>14</v>
+      <c r="E156" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B157" t="s">
-        <v>314</v>
-      </c>
-      <c r="C157" t="s">
-        <v>254</v>
-      </c>
-      <c r="D157" t="s">
-        <v>689</v>
-      </c>
-      <c r="E157" t="s">
-        <v>695</v>
+        <v>312</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B158" t="s">
-        <v>316</v>
-      </c>
-      <c r="C158" t="s">
-        <v>254</v>
+        <v>314</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
-      </c>
-      <c r="C159" t="s">
-        <v>254</v>
+        <v>316</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" t="s">
+        <v>318</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B160" t="s">
-        <v>320</v>
-      </c>
-      <c r="C160" t="s">
-        <v>321</v>
+      <c r="E160" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B161" t="s">
-        <v>323</v>
-      </c>
-      <c r="C161" t="s">
         <v>321</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B162" t="s">
-        <v>325</v>
-      </c>
-      <c r="C162" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
-      </c>
-      <c r="C163" t="s">
-        <v>321</v>
+        <v>325</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
-      </c>
-      <c r="C164" t="s">
-        <v>321</v>
+        <v>327</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B165" t="s">
-        <v>331</v>
-      </c>
-      <c r="C165" t="s">
-        <v>321</v>
+        <v>329</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B166" t="s">
-        <v>333</v>
-      </c>
-      <c r="C166" t="s">
-        <v>321</v>
+        <v>331</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B167" t="s">
-        <v>335</v>
-      </c>
-      <c r="C167" t="s">
-        <v>321</v>
+        <v>333</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
-      </c>
-      <c r="C168" t="s">
-        <v>321</v>
+        <v>335</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B169" t="s">
-        <v>339</v>
-      </c>
-      <c r="C169" t="s">
-        <v>321</v>
+        <v>337</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B170" t="s">
-        <v>341</v>
-      </c>
-      <c r="C170" t="s">
-        <v>321</v>
+        <v>339</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B171" t="s">
-        <v>343</v>
-      </c>
-      <c r="C171" t="s">
-        <v>321</v>
+        <v>341</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B172" t="s">
-        <v>345</v>
-      </c>
-      <c r="C172" t="s">
-        <v>321</v>
+        <v>343</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B173" t="s">
-        <v>347</v>
-      </c>
-      <c r="C173" t="s">
-        <v>321</v>
-      </c>
-      <c r="E173" t="s">
-        <v>698</v>
+        <v>345</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B174" t="s">
-        <v>349</v>
-      </c>
-      <c r="C174" t="s">
-        <v>321</v>
+        <v>347</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B175" t="s">
-        <v>351</v>
-      </c>
-      <c r="C175" t="s">
-        <v>321</v>
+        <v>349</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B176" t="s">
-        <v>353</v>
-      </c>
-      <c r="C176" t="s">
-        <v>321</v>
+        <v>351</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B177" t="s">
-        <v>355</v>
-      </c>
-      <c r="C177" t="s">
-        <v>321</v>
+        <v>353</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B178" t="s">
-        <v>357</v>
-      </c>
-      <c r="C178" t="s">
-        <v>321</v>
+        <v>355</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B179" t="s">
-        <v>359</v>
-      </c>
-      <c r="C179" t="s">
-        <v>321</v>
+        <v>357</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B180" t="s">
-        <v>361</v>
-      </c>
-      <c r="C180" t="s">
-        <v>321</v>
+        <v>359</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B181" t="s">
-        <v>363</v>
-      </c>
-      <c r="C181" t="s">
-        <v>321</v>
+        <v>361</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B182" t="s">
-        <v>365</v>
-      </c>
-      <c r="C182" t="s">
-        <v>321</v>
+        <v>363</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B183" t="s">
-        <v>367</v>
-      </c>
-      <c r="C183" t="s">
-        <v>321</v>
+        <v>365</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B184" t="s">
-        <v>369</v>
-      </c>
-      <c r="C184" t="s">
-        <v>321</v>
+        <v>367</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B185" t="s">
-        <v>371</v>
-      </c>
-      <c r="C185" t="s">
-        <v>321</v>
+        <v>369</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B186" t="s">
-        <v>373</v>
-      </c>
-      <c r="C186" t="s">
-        <v>321</v>
+        <v>371</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B187" t="s">
-        <v>375</v>
-      </c>
-      <c r="C187" t="s">
-        <v>321</v>
+        <v>373</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B188" t="s">
-        <v>377</v>
-      </c>
-      <c r="C188" t="s">
-        <v>321</v>
+        <v>375</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B189" t="s">
-        <v>379</v>
-      </c>
-      <c r="C189" t="s">
-        <v>321</v>
+        <v>377</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B190" t="s">
-        <v>381</v>
-      </c>
-      <c r="C190" t="s">
-        <v>321</v>
-      </c>
-      <c r="D190" t="s">
-        <v>688</v>
-      </c>
-      <c r="E190" t="s">
-        <v>698</v>
+        <v>379</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B191" t="s">
-        <v>383</v>
-      </c>
-      <c r="C191" t="s">
-        <v>384</v>
-      </c>
-      <c r="D191" t="s">
-        <v>688</v>
-      </c>
-      <c r="E191" t="s">
-        <v>698</v>
+      <c r="D191" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B192" t="s">
-        <v>386</v>
-      </c>
-      <c r="C192" t="s">
         <v>384</v>
       </c>
-      <c r="D192" t="s">
-        <v>688</v>
-      </c>
-      <c r="E192" t="s">
-        <v>684</v>
+      <c r="C192" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B193" t="s">
-        <v>388</v>
-      </c>
-      <c r="C193" t="s">
-        <v>384</v>
-      </c>
-      <c r="D193" t="s">
-        <v>690</v>
-      </c>
-      <c r="E193" t="s">
-        <v>695</v>
+        <v>386</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B194" t="s">
-        <v>390</v>
-      </c>
-      <c r="C194" t="s">
-        <v>384</v>
-      </c>
-      <c r="D194" t="s">
-        <v>690</v>
-      </c>
-      <c r="E194" t="s">
-        <v>695</v>
+        <v>388</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B195" t="s">
-        <v>392</v>
-      </c>
-      <c r="C195" t="s">
-        <v>384</v>
-      </c>
-      <c r="D195" t="s">
-        <v>690</v>
-      </c>
-      <c r="E195" t="s">
-        <v>687</v>
+        <v>390</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B196" t="s">
-        <v>394</v>
-      </c>
-      <c r="C196" t="s">
-        <v>384</v>
-      </c>
-      <c r="D196" t="s">
-        <v>690</v>
-      </c>
-      <c r="E196" t="s">
-        <v>685</v>
+        <v>392</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B197" t="s">
-        <v>396</v>
-      </c>
-      <c r="C197" t="s">
-        <v>384</v>
-      </c>
-      <c r="D197" t="s">
-        <v>689</v>
-      </c>
-      <c r="E197" t="s">
-        <v>685</v>
+        <v>394</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B198" t="s">
-        <v>398</v>
-      </c>
-      <c r="C198" t="s">
-        <v>384</v>
-      </c>
-      <c r="D198" t="s">
-        <v>689</v>
-      </c>
-      <c r="E198" t="s">
-        <v>697</v>
+        <v>396</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B199" t="s">
-        <v>400</v>
-      </c>
-      <c r="C199" t="s">
-        <v>384</v>
-      </c>
-      <c r="D199" t="s">
-        <v>689</v>
-      </c>
-      <c r="E199" t="s">
-        <v>697</v>
+        <v>398</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B200" t="s">
-        <v>402</v>
-      </c>
-      <c r="C200" t="s">
-        <v>384</v>
-      </c>
-      <c r="D200" t="s">
-        <v>689</v>
-      </c>
-      <c r="E200" t="s">
-        <v>685</v>
+        <v>400</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B201" t="s">
-        <v>404</v>
-      </c>
-      <c r="C201" t="s">
-        <v>384</v>
-      </c>
-      <c r="D201" t="s">
-        <v>688</v>
-      </c>
-      <c r="E201" t="s">
-        <v>687</v>
+        <v>402</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
-      </c>
-      <c r="C202" t="s">
-        <v>384</v>
-      </c>
-      <c r="D202" t="s">
-        <v>689</v>
-      </c>
-      <c r="E202" t="s">
-        <v>697</v>
+        <v>404</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B203" t="s">
-        <v>408</v>
-      </c>
-      <c r="C203" t="s">
-        <v>384</v>
-      </c>
-      <c r="D203" t="s">
-        <v>689</v>
-      </c>
-      <c r="E203" t="s">
-        <v>697</v>
+        <v>406</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B204" t="s">
-        <v>410</v>
-      </c>
-      <c r="C204" t="s">
-        <v>384</v>
-      </c>
-      <c r="D204" t="s">
-        <v>688</v>
-      </c>
-      <c r="E204" t="s">
-        <v>697</v>
+        <v>408</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B205" t="s">
-        <v>412</v>
-      </c>
-      <c r="C205" t="s">
-        <v>384</v>
-      </c>
-      <c r="D205" t="s">
-        <v>690</v>
-      </c>
-      <c r="E205" t="s">
-        <v>695</v>
+        <v>410</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B206" t="s">
-        <v>414</v>
-      </c>
-      <c r="C206" t="s">
-        <v>384</v>
-      </c>
-      <c r="D206" t="s">
-        <v>688</v>
-      </c>
-      <c r="E206" t="s">
-        <v>693</v>
+        <v>412</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B207" t="s">
-        <v>416</v>
-      </c>
-      <c r="C207" t="s">
-        <v>384</v>
-      </c>
-      <c r="D207" t="s">
-        <v>688</v>
-      </c>
-      <c r="E207" t="s">
-        <v>687</v>
+        <v>414</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B208" t="s">
-        <v>418</v>
-      </c>
-      <c r="C208" t="s">
-        <v>384</v>
-      </c>
-      <c r="D208" t="s">
-        <v>688</v>
-      </c>
-      <c r="E208" t="s">
-        <v>687</v>
+        <v>416</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B209" t="s">
-        <v>420</v>
-      </c>
-      <c r="C209" t="s">
-        <v>384</v>
-      </c>
-      <c r="D209" t="s">
-        <v>690</v>
-      </c>
-      <c r="E209" t="s">
-        <v>697</v>
+        <v>418</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B210" t="s">
-        <v>422</v>
-      </c>
-      <c r="C210" t="s">
-        <v>384</v>
-      </c>
-      <c r="D210" t="s">
-        <v>690</v>
-      </c>
-      <c r="E210" t="s">
-        <v>686</v>
+        <v>420</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B211" t="s">
-        <v>699</v>
-      </c>
-      <c r="C211" t="s">
-        <v>384</v>
-      </c>
-      <c r="D211" t="s">
-        <v>689</v>
-      </c>
-      <c r="E211" t="s">
-        <v>695</v>
+        <v>697</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B212" t="s">
-        <v>425</v>
-      </c>
-      <c r="C212" t="s">
-        <v>384</v>
-      </c>
-      <c r="D212" t="s">
-        <v>689</v>
-      </c>
-      <c r="E212" t="s">
-        <v>696</v>
+        <v>423</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B213" t="s">
-        <v>427</v>
-      </c>
-      <c r="C213" t="s">
-        <v>384</v>
-      </c>
-      <c r="D213" t="s">
-        <v>689</v>
-      </c>
-      <c r="E213" t="s">
-        <v>685</v>
+        <v>425</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B214" t="s">
-        <v>429</v>
-      </c>
-      <c r="C214" t="s">
-        <v>384</v>
-      </c>
-      <c r="D214" t="s">
-        <v>688</v>
-      </c>
-      <c r="E214" t="s">
-        <v>685</v>
+        <v>427</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B215" t="s">
-        <v>431</v>
-      </c>
-      <c r="C215" t="s">
-        <v>384</v>
-      </c>
-      <c r="D215" t="s">
-        <v>689</v>
-      </c>
-      <c r="E215" t="s">
-        <v>687</v>
+        <v>429</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B216" t="s">
-        <v>433</v>
-      </c>
-      <c r="C216" t="s">
-        <v>384</v>
-      </c>
-      <c r="D216" t="s">
-        <v>688</v>
-      </c>
-      <c r="E216" t="s">
-        <v>695</v>
+        <v>431</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B217" t="s">
-        <v>435</v>
-      </c>
-      <c r="C217" t="s">
-        <v>384</v>
-      </c>
-      <c r="D217" t="s">
-        <v>690</v>
-      </c>
-      <c r="E217" t="s">
-        <v>684</v>
+        <v>433</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B218" t="s">
-        <v>437</v>
-      </c>
-      <c r="C218" t="s">
-        <v>384</v>
-      </c>
-      <c r="D218" t="s">
-        <v>689</v>
-      </c>
-      <c r="E218" t="s">
-        <v>687</v>
+        <v>435</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B219" t="s">
-        <v>439</v>
-      </c>
-      <c r="C219" t="s">
-        <v>384</v>
-      </c>
-      <c r="D219" t="s">
-        <v>689</v>
-      </c>
-      <c r="E219" t="s">
-        <v>686</v>
+        <v>437</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B220" t="s">
-        <v>441</v>
-      </c>
-      <c r="C220" t="s">
-        <v>384</v>
-      </c>
-      <c r="D220" t="s">
-        <v>689</v>
-      </c>
-      <c r="E220" t="s">
-        <v>698</v>
+        <v>439</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B221" t="s">
-        <v>443</v>
-      </c>
-      <c r="C221" t="s">
-        <v>384</v>
-      </c>
-      <c r="D221" t="s">
-        <v>690</v>
-      </c>
-      <c r="E221" t="s">
-        <v>695</v>
+        <v>441</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B222" t="s">
-        <v>700</v>
-      </c>
-      <c r="C222" t="s">
-        <v>384</v>
-      </c>
-      <c r="D222" t="s">
-        <v>690</v>
-      </c>
-      <c r="E222" t="s">
-        <v>687</v>
+        <v>698</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B223" t="s">
-        <v>446</v>
-      </c>
-      <c r="C223" t="s">
-        <v>384</v>
-      </c>
-      <c r="D223" t="s">
-        <v>690</v>
-      </c>
-      <c r="E223" t="s">
-        <v>687</v>
+        <v>444</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B224" t="s">
-        <v>448</v>
-      </c>
-      <c r="C224" t="s">
-        <v>384</v>
-      </c>
-      <c r="D224" t="s">
-        <v>690</v>
-      </c>
-      <c r="E224" t="s">
-        <v>694</v>
+        <v>446</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B225" t="s">
-        <v>450</v>
-      </c>
-      <c r="C225" t="s">
-        <v>384</v>
-      </c>
-      <c r="D225" t="s">
-        <v>690</v>
-      </c>
-      <c r="E225" t="s">
-        <v>695</v>
+        <v>448</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B226" t="s">
-        <v>452</v>
-      </c>
-      <c r="C226" t="s">
-        <v>384</v>
-      </c>
-      <c r="D226" t="s">
-        <v>688</v>
-      </c>
-      <c r="E226" t="s">
-        <v>695</v>
+        <v>450</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B227" t="s">
-        <v>408</v>
-      </c>
-      <c r="C227" t="s">
-        <v>384</v>
-      </c>
-      <c r="D227" t="s">
-        <v>688</v>
-      </c>
-      <c r="E227" t="s">
-        <v>687</v>
+        <v>406</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B228" t="s">
-        <v>455</v>
-      </c>
-      <c r="C228" t="s">
-        <v>384</v>
-      </c>
-      <c r="D228" t="s">
-        <v>688</v>
-      </c>
-      <c r="E228" t="s">
-        <v>687</v>
+        <v>453</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B229" t="s">
-        <v>457</v>
-      </c>
-      <c r="C229" t="s">
-        <v>384</v>
-      </c>
-      <c r="D229" t="s">
-        <v>688</v>
-      </c>
-      <c r="E229" t="s">
-        <v>687</v>
+        <v>455</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B230" t="s">
-        <v>459</v>
-      </c>
-      <c r="C230" t="s">
-        <v>384</v>
-      </c>
-      <c r="D230" t="s">
-        <v>690</v>
-      </c>
-      <c r="E230" t="s">
-        <v>687</v>
+        <v>457</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B231" t="s">
-        <v>461</v>
-      </c>
-      <c r="C231" t="s">
-        <v>384</v>
+        <v>459</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B232" t="s">
-        <v>463</v>
-      </c>
-      <c r="C232" t="s">
-        <v>384</v>
+        <v>461</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B233" t="s">
-        <v>465</v>
-      </c>
-      <c r="C233" t="s">
-        <v>384</v>
+        <v>463</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B234" t="s">
-        <v>467</v>
-      </c>
-      <c r="C234" t="s">
-        <v>384</v>
+        <v>465</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B235" t="s">
-        <v>469</v>
-      </c>
-      <c r="C235" t="s">
-        <v>384</v>
+        <v>467</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B236" t="s">
-        <v>471</v>
-      </c>
-      <c r="C236" t="s">
-        <v>384</v>
+        <v>469</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B237" t="s">
-        <v>473</v>
-      </c>
-      <c r="C237" t="s">
-        <v>384</v>
+        <v>471</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B238" t="s">
-        <v>475</v>
-      </c>
-      <c r="C238" t="s">
-        <v>384</v>
-      </c>
-      <c r="D238" t="s">
-        <v>688</v>
+        <v>473</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B239" t="s">
-        <v>477</v>
-      </c>
-      <c r="C239" t="s">
-        <v>384</v>
+        <v>475</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
+        <v>476</v>
+      </c>
+      <c r="B240" t="s">
+        <v>477</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
         <v>478</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>479</v>
       </c>
-      <c r="C240" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+      <c r="C241" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
         <v>480</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>481</v>
       </c>
-      <c r="C241" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+      <c r="C242" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
         <v>482</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>483</v>
       </c>
-      <c r="C242" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+      <c r="C243" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
         <v>484</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>485</v>
       </c>
-      <c r="C243" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+      <c r="C244" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
         <v>486</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>487</v>
       </c>
-      <c r="C244" t="s">
-        <v>384</v>
-      </c>
-      <c r="D244" t="s">
+      <c r="C245" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" t="s">
+        <v>444</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>489</v>
+      </c>
+      <c r="B247" t="s">
+        <v>490</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>491</v>
+      </c>
+      <c r="B248" t="s">
+        <v>492</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>493</v>
+      </c>
+      <c r="B249" t="s">
+        <v>494</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>495</v>
+      </c>
+      <c r="B250" t="s">
+        <v>496</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>497</v>
+      </c>
+      <c r="B251" t="s">
+        <v>485</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>498</v>
+      </c>
+      <c r="B252" t="s">
+        <v>499</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>500</v>
+      </c>
+      <c r="B253" t="s">
+        <v>501</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" t="s">
+        <v>501</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>504</v>
+      </c>
+      <c r="B255" t="s">
+        <v>501</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>505</v>
+      </c>
+      <c r="B256" t="s">
+        <v>506</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>508</v>
+      </c>
+      <c r="B257" t="s">
+        <v>509</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>510</v>
+      </c>
+      <c r="B258" t="s">
+        <v>511</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>512</v>
+      </c>
+      <c r="B259" t="s">
+        <v>513</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>514</v>
+      </c>
+      <c r="B260" t="s">
+        <v>515</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>516</v>
+      </c>
+      <c r="B261" t="s">
+        <v>517</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>518</v>
+      </c>
+      <c r="B262" t="s">
+        <v>519</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>520</v>
+      </c>
+      <c r="B263" t="s">
+        <v>521</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>522</v>
+      </c>
+      <c r="B264" t="s">
+        <v>523</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>524</v>
+      </c>
+      <c r="B265" t="s">
+        <v>525</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>527</v>
+      </c>
+      <c r="B266" t="s">
+        <v>528</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>530</v>
+      </c>
+      <c r="B267" t="s">
+        <v>531</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>533</v>
+      </c>
+      <c r="B268" t="s">
+        <v>534</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>536</v>
+      </c>
+      <c r="B269" t="s">
+        <v>537</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>539</v>
+      </c>
+      <c r="B270" t="s">
+        <v>540</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>542</v>
+      </c>
+      <c r="B271" t="s">
+        <v>543</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>544</v>
+      </c>
+      <c r="B272" t="s">
+        <v>545</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>546</v>
+      </c>
+      <c r="B273" t="s">
+        <v>547</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>549</v>
+      </c>
+      <c r="B274" t="s">
+        <v>550</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>551</v>
+      </c>
+      <c r="B275" t="s">
+        <v>552</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>553</v>
+      </c>
+      <c r="B276" t="s">
+        <v>554</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>555</v>
+      </c>
+      <c r="B277" t="s">
+        <v>556</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>557</v>
+      </c>
+      <c r="B278" t="s">
+        <v>558</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>559</v>
+      </c>
+      <c r="B279" t="s">
+        <v>560</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>561</v>
+      </c>
+      <c r="B280" t="s">
+        <v>562</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D280" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>488</v>
-      </c>
-      <c r="B245" t="s">
-        <v>489</v>
-      </c>
-      <c r="C245" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
-        <v>490</v>
-      </c>
-      <c r="B246" t="s">
-        <v>446</v>
-      </c>
-      <c r="C246" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>491</v>
-      </c>
-      <c r="B247" t="s">
-        <v>492</v>
-      </c>
-      <c r="C247" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
-        <v>493</v>
-      </c>
-      <c r="B248" t="s">
-        <v>494</v>
-      </c>
-      <c r="C248" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
-        <v>495</v>
-      </c>
-      <c r="B249" t="s">
-        <v>496</v>
-      </c>
-      <c r="C249" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
-        <v>497</v>
-      </c>
-      <c r="B250" t="s">
-        <v>498</v>
-      </c>
-      <c r="C250" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
-        <v>499</v>
-      </c>
-      <c r="B251" t="s">
-        <v>487</v>
-      </c>
-      <c r="C251" t="s">
-        <v>384</v>
-      </c>
-      <c r="D251" t="s">
+      <c r="E280" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>563</v>
+      </c>
+      <c r="B281" t="s">
+        <v>564</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>565</v>
+      </c>
+      <c r="B282" t="s">
+        <v>566</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>567</v>
+      </c>
+      <c r="B283" t="s">
+        <v>568</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>569</v>
+      </c>
+      <c r="B284" t="s">
+        <v>570</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D284" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
-        <v>500</v>
-      </c>
-      <c r="B252" t="s">
-        <v>501</v>
-      </c>
-      <c r="C252" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>502</v>
-      </c>
-      <c r="B253" t="s">
-        <v>503</v>
-      </c>
-      <c r="C253" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
-        <v>505</v>
-      </c>
-      <c r="B254" t="s">
-        <v>503</v>
-      </c>
-      <c r="C254" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
-        <v>506</v>
-      </c>
-      <c r="B255" t="s">
-        <v>503</v>
-      </c>
-      <c r="C255" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
-        <v>507</v>
-      </c>
-      <c r="B256" t="s">
-        <v>508</v>
-      </c>
-      <c r="C256" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>510</v>
-      </c>
-      <c r="B257" t="s">
-        <v>511</v>
-      </c>
-      <c r="C257" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
-        <v>512</v>
-      </c>
-      <c r="B258" t="s">
-        <v>513</v>
-      </c>
-      <c r="C258" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>514</v>
-      </c>
-      <c r="B259" t="s">
-        <v>515</v>
-      </c>
-      <c r="C259" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
-        <v>516</v>
-      </c>
-      <c r="B260" t="s">
-        <v>517</v>
-      </c>
-      <c r="C260" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
-        <v>518</v>
-      </c>
-      <c r="B261" t="s">
-        <v>519</v>
-      </c>
-      <c r="C261" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
-        <v>520</v>
-      </c>
-      <c r="B262" t="s">
-        <v>521</v>
-      </c>
-      <c r="C262" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
-        <v>522</v>
-      </c>
-      <c r="B263" t="s">
-        <v>523</v>
-      </c>
-      <c r="C263" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
-        <v>524</v>
-      </c>
-      <c r="B264" t="s">
-        <v>525</v>
-      </c>
-      <c r="C264" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
-        <v>526</v>
-      </c>
-      <c r="B265" t="s">
-        <v>527</v>
-      </c>
-      <c r="C265" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>529</v>
-      </c>
-      <c r="B266" t="s">
-        <v>530</v>
-      </c>
-      <c r="C266" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
-        <v>532</v>
-      </c>
-      <c r="B267" t="s">
-        <v>533</v>
-      </c>
-      <c r="C267" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
-        <v>535</v>
-      </c>
-      <c r="B268" t="s">
-        <v>536</v>
-      </c>
-      <c r="C268" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
-        <v>538</v>
-      </c>
-      <c r="B269" t="s">
-        <v>539</v>
-      </c>
-      <c r="C269" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
-        <v>541</v>
-      </c>
-      <c r="B270" t="s">
-        <v>542</v>
-      </c>
-      <c r="C270" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
-        <v>544</v>
-      </c>
-      <c r="B271" t="s">
-        <v>545</v>
-      </c>
-      <c r="C271" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
-        <v>546</v>
-      </c>
-      <c r="B272" t="s">
-        <v>547</v>
-      </c>
-      <c r="C272" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+      <c r="E284" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>571</v>
+      </c>
+      <c r="B285" t="s">
+        <v>572</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B273" t="s">
-        <v>549</v>
-      </c>
-      <c r="C273" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
-        <v>551</v>
-      </c>
-      <c r="B274" t="s">
-        <v>552</v>
-      </c>
-      <c r="C274" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
-        <v>553</v>
-      </c>
-      <c r="B275" t="s">
-        <v>554</v>
-      </c>
-      <c r="C275" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>555</v>
-      </c>
-      <c r="B276" t="s">
-        <v>556</v>
-      </c>
-      <c r="C276" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
-        <v>557</v>
-      </c>
-      <c r="B277" t="s">
-        <v>558</v>
-      </c>
-      <c r="C277" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
-        <v>559</v>
-      </c>
-      <c r="B278" t="s">
-        <v>560</v>
-      </c>
-      <c r="C278" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
-        <v>561</v>
-      </c>
-      <c r="B279" t="s">
-        <v>562</v>
-      </c>
-      <c r="C279" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
-        <v>563</v>
-      </c>
-      <c r="B280" t="s">
-        <v>564</v>
-      </c>
-      <c r="C280" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
-        <v>565</v>
-      </c>
-      <c r="B281" t="s">
-        <v>566</v>
-      </c>
-      <c r="C281" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
-        <v>567</v>
-      </c>
-      <c r="B282" t="s">
-        <v>568</v>
-      </c>
-      <c r="C282" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>569</v>
-      </c>
-      <c r="B283" t="s">
-        <v>570</v>
-      </c>
-      <c r="C283" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
-        <v>571</v>
-      </c>
-      <c r="B284" t="s">
-        <v>572</v>
-      </c>
-      <c r="C284" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
         <v>573</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B286" t="s">
         <v>574</v>
       </c>
-      <c r="C285" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+      <c r="C286" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
         <v>575</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B287" t="s">
         <v>576</v>
       </c>
-      <c r="C286" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+      <c r="C287" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
         <v>577</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B288" t="s">
         <v>578</v>
       </c>
-      <c r="C287" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+      <c r="C288" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
         <v>579</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B289" t="s">
         <v>580</v>
       </c>
-      <c r="C288" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+      <c r="C289" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
         <v>581</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B290" t="s">
         <v>582</v>
       </c>
-      <c r="C289" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+      <c r="C290" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
         <v>583</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B291" t="s">
         <v>584</v>
       </c>
-      <c r="C290" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+      <c r="C291" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
         <v>585</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B292" t="s">
         <v>586</v>
       </c>
-      <c r="C291" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+      <c r="C292" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
         <v>587</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>588</v>
       </c>
-      <c r="C292" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+      <c r="C293" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
         <v>589</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B294" t="s">
         <v>590</v>
       </c>
-      <c r="C293" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+      <c r="C294" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
         <v>591</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B295" t="s">
         <v>592</v>
       </c>
-      <c r="C294" t="s">
-        <v>7</v>
-      </c>
-      <c r="D294" t="s">
+      <c r="C295" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>593</v>
+      </c>
+      <c r="B296" t="s">
+        <v>592</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>594</v>
+      </c>
+      <c r="B297" t="s">
+        <v>592</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>595</v>
+      </c>
+      <c r="B298" t="s">
+        <v>592</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>596</v>
+      </c>
+      <c r="B299" t="s">
+        <v>592</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>597</v>
+      </c>
+      <c r="B300" t="s">
+        <v>598</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>599</v>
+      </c>
+      <c r="B301" t="s">
+        <v>600</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>601</v>
+      </c>
+      <c r="B302" t="s">
+        <v>602</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>603</v>
+      </c>
+      <c r="B303" t="s">
+        <v>604</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>605</v>
+      </c>
+      <c r="B304" t="s">
+        <v>600</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>606</v>
+      </c>
+      <c r="B305" t="s">
+        <v>607</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>608</v>
+      </c>
+      <c r="B306" t="s">
+        <v>609</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>610</v>
+      </c>
+      <c r="B307" t="s">
+        <v>611</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>612</v>
+      </c>
+      <c r="B308" t="s">
+        <v>600</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
-        <v>593</v>
-      </c>
-      <c r="B295" t="s">
-        <v>594</v>
-      </c>
-      <c r="C295" t="s">
-        <v>7</v>
-      </c>
-      <c r="D295" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
-        <v>595</v>
-      </c>
-      <c r="B296" t="s">
-        <v>594</v>
-      </c>
-      <c r="C296" t="s">
-        <v>7</v>
-      </c>
-      <c r="D296" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
-        <v>596</v>
-      </c>
-      <c r="B297" t="s">
-        <v>594</v>
-      </c>
-      <c r="C297" t="s">
-        <v>7</v>
-      </c>
-      <c r="D297" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
-        <v>597</v>
-      </c>
-      <c r="B298" t="s">
-        <v>594</v>
-      </c>
-      <c r="C298" t="s">
-        <v>7</v>
-      </c>
-      <c r="D298" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
-        <v>598</v>
-      </c>
-      <c r="B299" t="s">
-        <v>594</v>
-      </c>
-      <c r="C299" t="s">
-        <v>7</v>
-      </c>
-      <c r="D299" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
-        <v>599</v>
-      </c>
-      <c r="B300" t="s">
-        <v>600</v>
-      </c>
-      <c r="C300" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300" t="s">
+      <c r="E308" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>613</v>
+      </c>
+      <c r="B309" t="s">
+        <v>614</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>615</v>
+      </c>
+      <c r="B310" t="s">
+        <v>616</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>617</v>
+      </c>
+      <c r="B311" t="s">
+        <v>616</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
-        <v>601</v>
-      </c>
-      <c r="B301" t="s">
-        <v>602</v>
-      </c>
-      <c r="C301" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
-        <v>603</v>
-      </c>
-      <c r="B302" t="s">
-        <v>604</v>
-      </c>
-      <c r="C302" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
-        <v>605</v>
-      </c>
-      <c r="B303" t="s">
-        <v>606</v>
-      </c>
-      <c r="C303" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
-        <v>607</v>
-      </c>
-      <c r="B304" t="s">
-        <v>602</v>
-      </c>
-      <c r="C304" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
-        <v>608</v>
-      </c>
-      <c r="B305" t="s">
-        <v>609</v>
-      </c>
-      <c r="C305" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
-        <v>610</v>
-      </c>
-      <c r="B306" t="s">
-        <v>611</v>
-      </c>
-      <c r="C306" t="s">
-        <v>7</v>
-      </c>
-      <c r="D306" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
-        <v>612</v>
-      </c>
-      <c r="B307" t="s">
-        <v>613</v>
-      </c>
-      <c r="C307" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
-        <v>614</v>
-      </c>
-      <c r="B308" t="s">
-        <v>602</v>
-      </c>
-      <c r="C308" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
-        <v>615</v>
-      </c>
-      <c r="B309" t="s">
+      <c r="E311" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>618</v>
+      </c>
+      <c r="B312" t="s">
         <v>616</v>
       </c>
-      <c r="C309" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
-        <v>617</v>
-      </c>
-      <c r="B310" t="s">
-        <v>618</v>
-      </c>
-      <c r="C310" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+      <c r="C312" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
         <v>619</v>
       </c>
-      <c r="B311" t="s">
-        <v>618</v>
-      </c>
-      <c r="C311" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+      <c r="B313" t="s">
+        <v>616</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
         <v>620</v>
       </c>
-      <c r="B312" t="s">
-        <v>618</v>
-      </c>
-      <c r="C312" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+      <c r="B314" t="s">
         <v>621</v>
       </c>
-      <c r="B313" t="s">
-        <v>618</v>
-      </c>
-      <c r="C313" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+      <c r="C314" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
         <v>622</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B315" t="s">
         <v>623</v>
       </c>
-      <c r="C314" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+      <c r="C315" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
         <v>624</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B316" t="s">
+        <v>623</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
         <v>625</v>
       </c>
-      <c r="C315" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+      <c r="B317" t="s">
+        <v>621</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
         <v>626</v>
       </c>
-      <c r="B316" t="s">
-        <v>625</v>
-      </c>
-      <c r="C316" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+      <c r="B318" t="s">
+        <v>623</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
         <v>627</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B319" t="s">
+        <v>628</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>629</v>
+      </c>
+      <c r="B320" t="s">
+        <v>628</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>630</v>
+      </c>
+      <c r="B321" t="s">
+        <v>631</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>632</v>
+      </c>
+      <c r="B322" t="s">
+        <v>628</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>633</v>
+      </c>
+      <c r="B323" t="s">
+        <v>628</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>634</v>
+      </c>
+      <c r="B324" t="s">
+        <v>631</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>635</v>
+      </c>
+      <c r="B325" t="s">
         <v>623</v>
       </c>
-      <c r="C317" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+      <c r="C325" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>636</v>
+      </c>
+      <c r="B326" t="s">
+        <v>621</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>637</v>
+      </c>
+      <c r="B327" t="s">
+        <v>631</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>638</v>
+      </c>
+      <c r="B328" t="s">
+        <v>631</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>639</v>
+      </c>
+      <c r="B329" t="s">
+        <v>621</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>640</v>
+      </c>
+      <c r="B330" t="s">
+        <v>623</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>641</v>
+      </c>
+      <c r="B331" t="s">
+        <v>623</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>642</v>
+      </c>
+      <c r="B332" t="s">
         <v>628</v>
       </c>
-      <c r="B318" t="s">
-        <v>625</v>
-      </c>
-      <c r="C318" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
-        <v>629</v>
-      </c>
-      <c r="B319" t="s">
-        <v>630</v>
-      </c>
-      <c r="C319" t="s">
-        <v>7</v>
-      </c>
-      <c r="D319" t="s">
+      <c r="C332" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>643</v>
+      </c>
+      <c r="B333" t="s">
+        <v>631</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>644</v>
+      </c>
+      <c r="B334" t="s">
+        <v>628</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>645</v>
+      </c>
+      <c r="B335" t="s">
+        <v>628</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>646</v>
+      </c>
+      <c r="B336" t="s">
+        <v>623</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
-        <v>631</v>
-      </c>
-      <c r="B320" t="s">
-        <v>630</v>
-      </c>
-      <c r="C320" t="s">
-        <v>7</v>
-      </c>
-      <c r="D320" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
-        <v>632</v>
-      </c>
-      <c r="B321" t="s">
-        <v>633</v>
-      </c>
-      <c r="C321" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
-        <v>634</v>
-      </c>
-      <c r="B322" t="s">
-        <v>630</v>
-      </c>
-      <c r="C322" t="s">
-        <v>7</v>
-      </c>
-      <c r="D322" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
-        <v>635</v>
-      </c>
-      <c r="B323" t="s">
-        <v>630</v>
-      </c>
-      <c r="C323" t="s">
-        <v>7</v>
-      </c>
-      <c r="D323" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
-        <v>636</v>
-      </c>
-      <c r="B324" t="s">
-        <v>633</v>
-      </c>
-      <c r="C324" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
-        <v>637</v>
-      </c>
-      <c r="B325" t="s">
-        <v>625</v>
-      </c>
-      <c r="C325" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
-        <v>638</v>
-      </c>
-      <c r="B326" t="s">
-        <v>623</v>
-      </c>
-      <c r="C326" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
-        <v>639</v>
-      </c>
-      <c r="B327" t="s">
-        <v>633</v>
-      </c>
-      <c r="C327" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
-        <v>640</v>
-      </c>
-      <c r="B328" t="s">
-        <v>633</v>
-      </c>
-      <c r="C328" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
-        <v>641</v>
-      </c>
-      <c r="B329" t="s">
-        <v>623</v>
-      </c>
-      <c r="C329" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
-        <v>642</v>
-      </c>
-      <c r="B330" t="s">
-        <v>625</v>
-      </c>
-      <c r="C330" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
-        <v>643</v>
-      </c>
-      <c r="B331" t="s">
-        <v>625</v>
-      </c>
-      <c r="C331" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
-        <v>644</v>
-      </c>
-      <c r="B332" t="s">
-        <v>630</v>
-      </c>
-      <c r="C332" t="s">
-        <v>7</v>
-      </c>
-      <c r="D332" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
-        <v>645</v>
-      </c>
-      <c r="B333" t="s">
-        <v>633</v>
-      </c>
-      <c r="C333" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
-        <v>646</v>
-      </c>
-      <c r="B334" t="s">
-        <v>630</v>
-      </c>
-      <c r="C334" t="s">
-        <v>7</v>
-      </c>
-      <c r="D334" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>647</v>
-      </c>
-      <c r="B335" t="s">
-        <v>630</v>
-      </c>
-      <c r="C335" t="s">
-        <v>7</v>
-      </c>
-      <c r="D335" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>648</v>
-      </c>
-      <c r="B336" t="s">
-        <v>625</v>
-      </c>
-      <c r="C336" t="s">
-        <v>7</v>
+      <c r="E336" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B337" t="s">
-        <v>630</v>
-      </c>
-      <c r="C337" t="s">
-        <v>7</v>
-      </c>
-      <c r="D337" t="s">
-        <v>688</v>
+        <v>628</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B338" t="s">
-        <v>623</v>
-      </c>
-      <c r="C338" t="s">
-        <v>7</v>
+        <v>621</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B339" t="s">
-        <v>625</v>
-      </c>
-      <c r="C339" t="s">
-        <v>7</v>
+        <v>623</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B340" t="s">
-        <v>625</v>
-      </c>
-      <c r="C340" t="s">
-        <v>7</v>
+        <v>623</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B341" t="s">
-        <v>625</v>
-      </c>
-      <c r="C341" t="s">
-        <v>7</v>
+        <v>623</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B342" t="s">
-        <v>623</v>
-      </c>
-      <c r="C342" t="s">
-        <v>7</v>
-      </c>
-      <c r="E342" t="s">
-        <v>696</v>
+        <v>621</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B343" t="s">
-        <v>630</v>
-      </c>
-      <c r="C343" t="s">
-        <v>7</v>
-      </c>
-      <c r="D343" t="s">
-        <v>688</v>
-      </c>
-      <c r="E343" s="1"/>
+        <v>628</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B344" t="s">
-        <v>630</v>
-      </c>
-      <c r="C344" t="s">
-        <v>7</v>
-      </c>
-      <c r="D344" t="s">
-        <v>688</v>
-      </c>
-      <c r="E344" t="s">
-        <v>694</v>
+        <v>628</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B345" t="s">
-        <v>633</v>
-      </c>
-      <c r="C345" t="s">
-        <v>7</v>
-      </c>
-      <c r="D345" t="s">
-        <v>688</v>
-      </c>
-      <c r="E345" t="s">
-        <v>694</v>
+        <v>631</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B346" t="s">
-        <v>659</v>
-      </c>
-      <c r="C346" t="s">
-        <v>7</v>
-      </c>
-      <c r="D346" t="s">
-        <v>688</v>
-      </c>
-      <c r="E346" t="s">
-        <v>693</v>
+        <v>657</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B347" t="s">
-        <v>659</v>
-      </c>
-      <c r="C347" t="s">
-        <v>7</v>
-      </c>
-      <c r="D347" t="s">
-        <v>688</v>
-      </c>
-      <c r="E347" t="s">
-        <v>694</v>
+        <v>657</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B348" t="s">
-        <v>659</v>
-      </c>
-      <c r="C348" t="s">
-        <v>7</v>
-      </c>
-      <c r="D348" t="s">
-        <v>688</v>
-      </c>
-      <c r="E348" t="s">
+        <v>657</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>686</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B349" t="s">
-        <v>663</v>
-      </c>
-      <c r="C349" t="s">
-        <v>7</v>
-      </c>
-      <c r="D349" t="s">
+        <v>661</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E349" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="E349" s="1"/>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B350" t="s">
-        <v>665</v>
-      </c>
-      <c r="C350" t="s">
-        <v>7</v>
-      </c>
-      <c r="D350" t="s">
-        <v>689</v>
-      </c>
-      <c r="E350" t="s">
-        <v>697</v>
+        <v>663</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B351" t="s">
-        <v>663</v>
-      </c>
-      <c r="C351" t="s">
-        <v>7</v>
-      </c>
-      <c r="D351" t="s">
-        <v>690</v>
-      </c>
-      <c r="E351" s="1"/>
+        <v>661</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B352" t="s">
-        <v>665</v>
-      </c>
-      <c r="C352" t="s">
-        <v>7</v>
-      </c>
-      <c r="D352" t="s">
-        <v>689</v>
-      </c>
-      <c r="E352" t="s">
-        <v>697</v>
+        <v>663</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B353" t="s">
-        <v>665</v>
-      </c>
-      <c r="C353" t="s">
-        <v>7</v>
-      </c>
-      <c r="D353" t="s">
-        <v>689</v>
-      </c>
-      <c r="E353" t="s">
-        <v>697</v>
+        <v>663</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B354" t="s">
-        <v>665</v>
-      </c>
-      <c r="C354" t="s">
-        <v>7</v>
-      </c>
-      <c r="D354" t="s">
-        <v>689</v>
-      </c>
-      <c r="E354" t="s">
-        <v>697</v>
+        <v>663</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B355" t="s">
-        <v>671</v>
-      </c>
-      <c r="C355" t="s">
-        <v>7</v>
-      </c>
-      <c r="D355" t="s">
-        <v>689</v>
-      </c>
-      <c r="E355" t="s">
-        <v>684</v>
+        <v>669</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B356" t="s">
-        <v>663</v>
-      </c>
-      <c r="C356" t="s">
-        <v>7</v>
-      </c>
-      <c r="D356" t="s">
-        <v>690</v>
-      </c>
-      <c r="E356" t="s">
-        <v>686</v>
+        <v>661</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B357" t="s">
-        <v>663</v>
-      </c>
-      <c r="C357" t="s">
-        <v>7</v>
-      </c>
-      <c r="D357" t="s">
-        <v>690</v>
-      </c>
-      <c r="E357" t="s">
-        <v>686</v>
+        <v>661</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B358" t="s">
-        <v>663</v>
-      </c>
-      <c r="C358" t="s">
-        <v>7</v>
-      </c>
-      <c r="D358" t="s">
-        <v>690</v>
-      </c>
-      <c r="E358" t="s">
-        <v>693</v>
+        <v>661</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B359" t="s">
-        <v>665</v>
-      </c>
-      <c r="C359" t="s">
-        <v>7</v>
-      </c>
-      <c r="D359" t="s">
-        <v>689</v>
-      </c>
-      <c r="E359" t="s">
-        <v>695</v>
+        <v>663</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B360" t="s">
-        <v>671</v>
-      </c>
-      <c r="C360" t="s">
-        <v>7</v>
-      </c>
-      <c r="D360" t="s">
-        <v>689</v>
-      </c>
-      <c r="E360" t="s">
-        <v>684</v>
+        <v>669</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B361" t="s">
-        <v>671</v>
-      </c>
-      <c r="C361" t="s">
-        <v>7</v>
-      </c>
-      <c r="D361" t="s">
-        <v>689</v>
-      </c>
-      <c r="E361" t="s">
-        <v>684</v>
+        <v>669</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B362" t="s">
-        <v>665</v>
-      </c>
-      <c r="C362" t="s">
-        <v>7</v>
-      </c>
-      <c r="D362" t="s">
-        <v>689</v>
-      </c>
-      <c r="E362" t="s">
-        <v>697</v>
+        <v>663</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B363" t="s">
-        <v>671</v>
-      </c>
-      <c r="C363" t="s">
-        <v>7</v>
-      </c>
-      <c r="D363" t="s">
-        <v>689</v>
-      </c>
-      <c r="E363" t="s">
-        <v>684</v>
+        <v>669</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B364" t="s">
-        <v>659</v>
-      </c>
-      <c r="C364" t="s">
-        <v>7</v>
-      </c>
-      <c r="D364" t="s">
-        <v>688</v>
-      </c>
-      <c r="E364" s="1"/>
+        <v>657</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B365" t="s">
-        <v>659</v>
-      </c>
-      <c r="C365" t="s">
-        <v>7</v>
-      </c>
-      <c r="D365" t="s">
-        <v>688</v>
-      </c>
-      <c r="E365" t="s">
-        <v>692</v>
+        <v>657</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B366" t="s">
-        <v>663</v>
-      </c>
-      <c r="C366" t="s">
-        <v>7</v>
-      </c>
-      <c r="D366" t="s">
-        <v>690</v>
-      </c>
-      <c r="E366" t="s">
-        <v>694</v>
+        <v>661</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B367" t="s">
-        <v>659</v>
-      </c>
-      <c r="C367" t="s">
-        <v>7</v>
-      </c>
-      <c r="D367" t="s">
-        <v>688</v>
-      </c>
-      <c r="E367" t="s">
-        <v>694</v>
+        <v>657</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>

--- a/back-end/glassesSKU.xlsx
+++ b/back-end/glassesSKU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Desktop\gaboor-optic\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D079356-CE1B-4EAC-95DA-86CEEF8B43B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261486C5-1D8F-42DC-8FA1-EF990304D757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glassesSKU" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="659">
   <si>
     <t>ID</t>
   </si>
@@ -1970,9 +1970,6 @@
   </si>
   <si>
     <t>مردانه</t>
-  </si>
-  <si>
-    <t>چندرنگ</t>
   </si>
   <si>
     <t>سبز</t>
@@ -2491,10 +2488,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2852,7 +2849,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2962,7 +2961,7 @@
         <v>647</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2979,7 +2978,7 @@
         <v>648</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2996,7 +2995,7 @@
         <v>647</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3013,7 +3012,7 @@
         <v>647</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3030,7 +3029,7 @@
         <v>647</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3047,7 +3046,7 @@
         <v>649</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3081,7 +3080,7 @@
         <v>648</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3115,7 +3114,7 @@
         <v>648</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3132,7 +3131,7 @@
         <v>648</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3149,7 +3148,7 @@
         <v>649</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3200,7 +3199,7 @@
         <v>649</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3217,7 +3216,7 @@
         <v>648</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3251,7 +3250,7 @@
         <v>648</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3268,7 +3267,7 @@
         <v>648</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3302,7 +3301,7 @@
         <v>647</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3319,7 +3318,7 @@
         <v>648</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3336,7 +3335,7 @@
         <v>648</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3387,7 +3386,7 @@
         <v>649</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3404,7 +3403,7 @@
         <v>648</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3421,7 +3420,7 @@
         <v>649</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3438,7 +3437,7 @@
         <v>648</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3455,7 +3454,7 @@
         <v>649</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3489,7 +3488,7 @@
         <v>648</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3506,7 +3505,7 @@
         <v>648</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3523,7 +3522,7 @@
         <v>648</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3540,7 +3539,7 @@
         <v>649</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3591,7 +3590,7 @@
         <v>647</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3608,7 +3607,7 @@
         <v>647</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3642,7 +3641,7 @@
         <v>649</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3659,7 +3658,7 @@
         <v>647</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3676,7 +3675,7 @@
         <v>648</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3693,7 +3692,7 @@
         <v>648</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3710,7 +3709,7 @@
         <v>649</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3727,7 +3726,7 @@
         <v>648</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3744,7 +3743,7 @@
         <v>649</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3761,7 +3760,7 @@
         <v>648</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3795,7 +3794,7 @@
         <v>649</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3846,7 +3845,7 @@
         <v>649</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3863,7 +3862,7 @@
         <v>648</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3880,7 +3879,7 @@
         <v>649</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3897,7 +3896,7 @@
         <v>647</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -3948,7 +3947,7 @@
         <v>649</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3965,7 +3964,7 @@
         <v>648</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4016,7 +4015,7 @@
         <v>647</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4033,7 +4032,7 @@
         <v>648</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -4067,7 +4066,7 @@
         <v>649</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -4084,7 +4083,7 @@
         <v>647</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -4101,7 +4100,7 @@
         <v>647</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -4118,7 +4117,7 @@
         <v>648</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -4152,7 +4151,7 @@
         <v>647</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -4203,7 +4202,7 @@
         <v>647</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -4220,7 +4219,7 @@
         <v>648</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -4237,7 +4236,7 @@
         <v>647</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -4271,7 +4270,7 @@
         <v>648</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -4288,7 +4287,7 @@
         <v>648</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -4305,7 +4304,7 @@
         <v>649</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -4322,7 +4321,7 @@
         <v>649</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -4339,7 +4338,7 @@
         <v>648</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -4407,7 +4406,7 @@
         <v>649</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -4424,7 +4423,7 @@
         <v>647</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -4441,7 +4440,7 @@
         <v>647</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -4458,7 +4457,7 @@
         <v>648</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -4543,7 +4542,7 @@
         <v>648</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -4577,7 +4576,7 @@
         <v>649</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -4628,7 +4627,7 @@
         <v>649</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -4645,7 +4644,7 @@
         <v>648</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -4679,7 +4678,7 @@
         <v>649</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4696,7 +4695,7 @@
         <v>648</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4730,7 +4729,7 @@
         <v>649</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -4764,7 +4763,7 @@
         <v>647</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -4781,7 +4780,7 @@
         <v>648</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -4798,7 +4797,7 @@
         <v>648</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -4815,7 +4814,7 @@
         <v>647</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -4832,7 +4831,7 @@
         <v>647</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -4849,7 +4848,7 @@
         <v>647</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -4866,7 +4865,7 @@
         <v>649</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -4883,7 +4882,7 @@
         <v>649</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -4900,7 +4899,7 @@
         <v>649</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -4917,7 +4916,7 @@
         <v>649</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
@@ -4934,7 +4933,7 @@
         <v>649</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
@@ -4951,7 +4950,7 @@
         <v>648</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
@@ -4985,7 +4984,7 @@
         <v>649</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
@@ -5002,7 +5001,7 @@
         <v>648</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
@@ -5019,7 +5018,7 @@
         <v>648</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
@@ -5053,7 +5052,7 @@
         <v>648</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
@@ -5070,7 +5069,7 @@
         <v>648</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
@@ -5104,7 +5103,7 @@
         <v>648</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
@@ -5121,7 +5120,7 @@
         <v>648</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
@@ -5138,7 +5137,7 @@
         <v>648</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
@@ -5155,7 +5154,7 @@
         <v>648</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
@@ -5172,7 +5171,7 @@
         <v>648</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
@@ -5189,7 +5188,7 @@
         <v>647</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
@@ -5223,7 +5222,7 @@
         <v>648</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
@@ -5240,7 +5239,7 @@
         <v>647</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
@@ -5274,7 +5273,7 @@
         <v>649</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
@@ -5291,7 +5290,7 @@
         <v>648</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
@@ -5308,7 +5307,7 @@
         <v>648</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -5376,7 +5375,7 @@
         <v>647</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
@@ -5427,7 +5426,7 @@
         <v>648</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -5495,7 +5494,7 @@
         <v>648</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -5563,7 +5562,7 @@
         <v>648</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -5614,7 +5613,7 @@
         <v>648</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
@@ -5631,7 +5630,7 @@
         <v>648</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -5648,7 +5647,7 @@
         <v>648</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
@@ -5665,7 +5664,7 @@
         <v>647</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -5716,7 +5715,7 @@
         <v>649</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
@@ -5767,7 +5766,7 @@
         <v>648</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
@@ -5801,7 +5800,7 @@
         <v>648</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
@@ -5852,7 +5851,7 @@
         <v>648</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -5886,7 +5885,7 @@
         <v>648</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
@@ -5903,7 +5902,7 @@
         <v>647</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
@@ -5920,7 +5919,7 @@
         <v>647</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
@@ -5954,7 +5953,7 @@
         <v>649</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
@@ -5971,7 +5970,7 @@
         <v>649</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
@@ -6039,7 +6038,7 @@
         <v>648</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
@@ -6056,7 +6055,7 @@
         <v>648</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
@@ -6107,7 +6106,7 @@
         <v>648</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
@@ -6124,7 +6123,7 @@
         <v>648</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
@@ -6141,7 +6140,7 @@
         <v>647</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
@@ -6158,7 +6157,7 @@
         <v>649</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
@@ -6175,7 +6174,7 @@
         <v>647</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
@@ -6226,7 +6225,7 @@
         <v>649</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
@@ -6251,7 +6250,7 @@
         <v>396</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>357</v>
@@ -6260,7 +6259,7 @@
         <v>648</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
@@ -6277,7 +6276,7 @@
         <v>648</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
@@ -6345,7 +6344,7 @@
         <v>647</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
@@ -6413,7 +6412,7 @@
         <v>648</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
@@ -6430,7 +6429,7 @@
         <v>649</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
@@ -6438,7 +6437,7 @@
         <v>417</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>357</v>
@@ -6481,7 +6480,7 @@
         <v>649</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
@@ -6498,7 +6497,7 @@
         <v>649</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
@@ -6515,7 +6514,7 @@
         <v>647</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
@@ -6600,7 +6599,7 @@
         <v>648</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
@@ -6617,7 +6616,7 @@
         <v>648</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
@@ -6634,7 +6633,7 @@
         <v>647</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
@@ -6685,7 +6684,7 @@
         <v>647</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -6702,7 +6701,7 @@
         <v>648</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
@@ -6736,7 +6735,7 @@
         <v>647</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
@@ -6753,7 +6752,7 @@
         <v>648</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
@@ -6838,7 +6837,7 @@
         <v>647</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
@@ -6855,7 +6854,7 @@
         <v>647</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
@@ -6872,7 +6871,7 @@
         <v>648</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
@@ -6889,7 +6888,7 @@
         <v>648</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
@@ -6906,7 +6905,7 @@
         <v>647</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
@@ -6923,7 +6922,7 @@
         <v>648</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
@@ -6940,7 +6939,7 @@
         <v>647</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
@@ -6957,7 +6956,7 @@
         <v>647</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
@@ -6974,7 +6973,7 @@
         <v>647</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
@@ -6991,7 +6990,7 @@
         <v>647</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -7008,7 +7007,7 @@
         <v>649</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -7025,7 +7024,7 @@
         <v>649</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -7042,7 +7041,7 @@
         <v>649</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
@@ -7059,7 +7058,7 @@
         <v>649</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
@@ -7076,7 +7075,7 @@
         <v>649</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
@@ -7093,7 +7092,7 @@
         <v>647</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
@@ -7110,7 +7109,7 @@
         <v>647</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
@@ -7127,7 +7126,7 @@
         <v>647</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
@@ -7144,7 +7143,7 @@
         <v>647</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
@@ -7161,7 +7160,7 @@
         <v>647</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
@@ -7195,7 +7194,7 @@
         <v>647</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
@@ -7212,7 +7211,7 @@
         <v>647</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
@@ -7229,7 +7228,7 @@
         <v>648</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
@@ -7246,7 +7245,7 @@
         <v>648</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
@@ -7263,7 +7262,7 @@
         <v>649</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
@@ -7297,7 +7296,7 @@
         <v>647</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
@@ -7331,7 +7330,7 @@
         <v>647</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
@@ -7348,7 +7347,7 @@
         <v>649</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
@@ -7365,7 +7364,7 @@
         <v>648</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
@@ -7382,7 +7381,7 @@
         <v>648</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
@@ -7399,7 +7398,7 @@
         <v>648</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
@@ -7416,7 +7415,7 @@
         <v>649</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
@@ -7433,7 +7432,7 @@
         <v>649</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
@@ -7450,7 +7449,7 @@
         <v>649</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
@@ -7467,7 +7466,7 @@
         <v>647</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
@@ -7484,7 +7483,7 @@
         <v>647</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
@@ -7501,7 +7500,7 @@
         <v>647</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
@@ -7535,7 +7534,7 @@
         <v>648</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
@@ -7552,7 +7551,7 @@
         <v>649</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
@@ -7569,7 +7568,7 @@
         <v>647</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
@@ -7586,7 +7585,7 @@
         <v>648</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
@@ -7603,7 +7602,7 @@
         <v>648</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
@@ -7620,7 +7619,7 @@
         <v>648</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
@@ -7654,7 +7653,7 @@
         <v>649</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
@@ -7671,7 +7670,7 @@
         <v>648</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
@@ -7739,7 +7738,7 @@
         <v>648</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
@@ -7790,7 +7789,7 @@
         <v>647</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
@@ -7841,7 +7840,7 @@
         <v>649</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
@@ -7858,7 +7857,7 @@
         <v>649</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
@@ -7875,7 +7874,7 @@
         <v>649</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
@@ -7892,7 +7891,7 @@
         <v>647</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
@@ -7926,7 +7925,7 @@
         <v>647</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
@@ -7943,7 +7942,7 @@
         <v>647</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
@@ -7960,7 +7959,7 @@
         <v>647</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
@@ -7994,7 +7993,7 @@
         <v>648</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
@@ -8011,7 +8010,7 @@
         <v>647</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
@@ -8045,7 +8044,7 @@
         <v>648</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
@@ -8062,7 +8061,7 @@
         <v>649</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
@@ -8079,7 +8078,7 @@
         <v>649</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
@@ -8096,7 +8095,7 @@
         <v>648</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
@@ -8113,7 +8112,7 @@
         <v>647</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
@@ -8130,7 +8129,7 @@
         <v>649</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
@@ -8147,7 +8146,7 @@
         <v>648</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
@@ -8164,7 +8163,7 @@
         <v>648</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
@@ -8215,7 +8214,7 @@
         <v>647</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
@@ -8232,7 +8231,7 @@
         <v>647</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
@@ -8249,7 +8248,7 @@
         <v>649</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
@@ -8266,7 +8265,7 @@
         <v>647</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
@@ -8283,7 +8282,7 @@
         <v>648</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -8317,7 +8316,7 @@
         <v>648</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
@@ -8334,7 +8333,7 @@
         <v>649</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
@@ -8351,7 +8350,7 @@
         <v>649</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
@@ -8368,7 +8367,7 @@
         <v>647</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
@@ -8385,7 +8384,7 @@
         <v>647</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
@@ -8419,7 +8418,7 @@
         <v>647</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
@@ -8436,7 +8435,7 @@
         <v>647</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
@@ -8470,7 +8469,7 @@
         <v>649</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
@@ -8487,7 +8486,7 @@
         <v>648</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
@@ -8504,7 +8503,7 @@
         <v>649</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
@@ -8521,7 +8520,7 @@
         <v>648</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
@@ -8538,7 +8537,7 @@
         <v>648</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
@@ -8555,7 +8554,7 @@
         <v>648</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
@@ -8572,7 +8571,7 @@
         <v>648</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
@@ -8623,7 +8622,7 @@
         <v>647</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
@@ -8640,7 +8639,7 @@
         <v>648</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
@@ -8657,7 +8656,7 @@
         <v>648</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
@@ -8674,7 +8673,7 @@
         <v>648</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
@@ -8691,7 +8690,7 @@
         <v>648</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
@@ -8742,7 +8741,7 @@
         <v>647</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
@@ -8759,7 +8758,7 @@
         <v>649</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">

--- a/back-end/glassesSKU.xlsx
+++ b/back-end/glassesSKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MY PC\Desktop\gaboor-optic\back-end\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261486C5-1D8F-42DC-8FA1-EF990304D757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54071ED-F8BA-48D2-A305-25B2547CDC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -685,9 +685,6 @@
     <t>rayban_ferrari_blue_bleu_mirror_chromance</t>
   </si>
   <si>
-    <t>Rayban Ferrari Bleu</t>
-  </si>
-  <si>
     <t>rayban_cockpit_noir_vert_gradient_flash</t>
   </si>
   <si>
@@ -1997,6 +1994,9 @@
   </si>
   <si>
     <t>Wayferer Style ( Black &amp; Silver)</t>
+  </si>
+  <si>
+    <t>Rayban Ferrari Blue</t>
   </si>
 </sst>
 </file>
@@ -2849,14 +2849,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="38" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
@@ -2890,10 +2890,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2907,10 +2907,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2924,10 +2924,10 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2941,10 +2941,10 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2958,10 +2958,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2975,10 +2975,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2992,10 +2992,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3009,10 +3009,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3026,10 +3026,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3043,10 +3043,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3060,10 +3060,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3077,10 +3077,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3094,10 +3094,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3111,10 +3111,10 @@
         <v>7</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3128,10 +3128,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3145,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3162,10 +3162,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3179,10 +3179,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3196,10 +3196,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3213,10 +3213,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3230,10 +3230,10 @@
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3247,10 +3247,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3264,10 +3264,10 @@
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3281,10 +3281,10 @@
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3298,10 +3298,10 @@
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3315,10 +3315,10 @@
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3332,10 +3332,10 @@
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3349,10 +3349,10 @@
         <v>7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3366,10 +3366,10 @@
         <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3383,10 +3383,10 @@
         <v>7</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3400,10 +3400,10 @@
         <v>7</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3417,10 +3417,10 @@
         <v>7</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3434,10 +3434,10 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3451,10 +3451,10 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3468,10 +3468,10 @@
         <v>7</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3485,10 +3485,10 @@
         <v>7</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3502,10 +3502,10 @@
         <v>7</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3519,10 +3519,10 @@
         <v>7</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3536,10 +3536,10 @@
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3553,10 +3553,10 @@
         <v>7</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3570,10 +3570,10 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3587,10 +3587,10 @@
         <v>7</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3604,10 +3604,10 @@
         <v>7</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3621,10 +3621,10 @@
         <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3638,10 +3638,10 @@
         <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -3655,10 +3655,10 @@
         <v>7</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -3672,10 +3672,10 @@
         <v>7</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -3689,10 +3689,10 @@
         <v>7</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -3706,10 +3706,10 @@
         <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -3723,10 +3723,10 @@
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -3740,10 +3740,10 @@
         <v>7</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -3757,10 +3757,10 @@
         <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -3774,10 +3774,10 @@
         <v>7</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -3791,10 +3791,10 @@
         <v>7</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -3808,10 +3808,10 @@
         <v>7</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -3825,10 +3825,10 @@
         <v>7</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -3842,10 +3842,10 @@
         <v>7</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -3859,10 +3859,10 @@
         <v>7</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -3876,10 +3876,10 @@
         <v>7</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -3893,10 +3893,10 @@
         <v>7</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -3910,10 +3910,10 @@
         <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -3927,10 +3927,10 @@
         <v>7</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -3944,10 +3944,10 @@
         <v>7</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -3961,10 +3961,10 @@
         <v>7</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -3978,10 +3978,10 @@
         <v>7</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -3995,10 +3995,10 @@
         <v>7</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -4012,10 +4012,10 @@
         <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4029,10 +4029,10 @@
         <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -4046,10 +4046,10 @@
         <v>7</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -4063,10 +4063,10 @@
         <v>7</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -4080,10 +4080,10 @@
         <v>7</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -4097,10 +4097,10 @@
         <v>7</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -4114,10 +4114,10 @@
         <v>7</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -4131,10 +4131,10 @@
         <v>7</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -4148,10 +4148,10 @@
         <v>7</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -4165,10 +4165,10 @@
         <v>7</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -4182,10 +4182,10 @@
         <v>7</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -4199,10 +4199,10 @@
         <v>7</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -4216,10 +4216,10 @@
         <v>7</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -4233,10 +4233,10 @@
         <v>7</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -4250,10 +4250,10 @@
         <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -4267,10 +4267,10 @@
         <v>7</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -4284,10 +4284,10 @@
         <v>7</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -4301,10 +4301,10 @@
         <v>7</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -4318,10 +4318,10 @@
         <v>7</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -4335,10 +4335,10 @@
         <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -4352,10 +4352,10 @@
         <v>7</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -4369,10 +4369,10 @@
         <v>7</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -4386,10 +4386,10 @@
         <v>7</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -4403,10 +4403,10 @@
         <v>7</v>
       </c>
       <c r="D91" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -4420,10 +4420,10 @@
         <v>7</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -4437,10 +4437,10 @@
         <v>7</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -4454,10 +4454,10 @@
         <v>7</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -4471,10 +4471,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -4488,10 +4488,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -4505,10 +4505,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -4522,10 +4522,10 @@
         <v>7</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -4539,10 +4539,10 @@
         <v>7</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -4556,10 +4556,10 @@
         <v>7</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -4573,10 +4573,10 @@
         <v>7</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -4590,10 +4590,10 @@
         <v>7</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -4607,10 +4607,10 @@
         <v>7</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -4624,10 +4624,10 @@
         <v>7</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -4641,10 +4641,10 @@
         <v>7</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -4658,10 +4658,10 @@
         <v>7</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -4675,10 +4675,10 @@
         <v>7</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -4692,10 +4692,10 @@
         <v>7</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -4709,10 +4709,10 @@
         <v>7</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -4726,10 +4726,10 @@
         <v>7</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -4743,10 +4743,10 @@
         <v>7</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -4760,10 +4760,10 @@
         <v>7</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -4771,123 +4771,123 @@
         <v>220</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>221</v>
+        <v>658</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>223</v>
-      </c>
       <c r="C114" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="C115" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="C116" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C117" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C118" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C119" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>19</v>
@@ -4896,3886 +4896,3886 @@
         <v>7</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C121" s="1" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="D122" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="C123" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="C124" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>245</v>
-      </c>
       <c r="C125" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="C126" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="C127" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="C128" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C129" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C130" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="C131" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="C132" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="C133" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="C134" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="C135" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="C136" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C137" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="C139" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C140" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="C141" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="C142" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C143" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C144" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C145" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C146" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="D147" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="C149" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C150" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C151" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C152" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="C153" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="C154" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="C155" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C156" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="C157" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C158" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C159" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="C160" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C161" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="C162" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>322</v>
-      </c>
       <c r="C163" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="C164" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="C165" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>328</v>
-      </c>
       <c r="C166" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>330</v>
-      </c>
       <c r="C167" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="C168" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>334</v>
-      </c>
       <c r="C169" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="C170" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>338</v>
-      </c>
       <c r="C171" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B172" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="C172" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="C173" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B174" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="C174" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B175" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="C175" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C176" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="C177" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="C178" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>354</v>
-      </c>
       <c r="C179" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="D180" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="C181" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="C182" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>363</v>
-      </c>
       <c r="C183" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="C184" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="C185" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D185" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E185" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C186" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C187" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="C188" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="C189" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="C190" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="C191" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="C192" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>383</v>
-      </c>
       <c r="C193" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B194" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="C194" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="C195" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="C196" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="C197" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="C198" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="C199" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="C201" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B202" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="C202" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="B203" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="C203" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B204" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="C204" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C205" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="C206" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="C207" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="C208" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="C209" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="C210" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="C212" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="C213" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="C214" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="C215" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="C217" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B218" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C218" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B219" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="C219" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="C220" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="C221" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B222" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="C222" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="C223" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C224" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="C225" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="C226" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>448</v>
-      </c>
       <c r="C227" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="B228" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="C228" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B229" s="2" t="s">
-        <v>452</v>
-      </c>
       <c r="C229" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="C231" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>457</v>
-      </c>
       <c r="C232" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="C233" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>461</v>
-      </c>
       <c r="C234" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>464</v>
-      </c>
       <c r="C236" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="C237" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="D237" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="D238" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>467</v>
-      </c>
       <c r="D239" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="C240" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>472</v>
-      </c>
       <c r="D240" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="C241" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="C242" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="C243" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="C244" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B245" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="C245" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B246" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="C246" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="C247" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D247" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B248" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="C248" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="C249" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>491</v>
-      </c>
       <c r="D249" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="C250" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>494</v>
-      </c>
       <c r="D250" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="C251" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>497</v>
-      </c>
       <c r="D251" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="C252" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="D252" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="D253" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>506</v>
-      </c>
       <c r="D254" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>508</v>
-      </c>
       <c r="C255" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B256" s="2" t="s">
-        <v>510</v>
-      </c>
       <c r="C256" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="C257" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>513</v>
-      </c>
       <c r="D257" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="C258" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="C259" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="C260" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="C261" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B262" s="2" t="s">
-        <v>523</v>
-      </c>
       <c r="C262" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="B263" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="C263" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="C264" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B265" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="C265" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>531</v>
-      </c>
       <c r="C266" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="C267" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B268" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="C268" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="C269" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="C270" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="C271" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B272" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="C272" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="C273" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B274" s="2" t="s">
-        <v>547</v>
-      </c>
       <c r="C274" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="C275" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B276" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="C276" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B277" s="2" t="s">
-        <v>553</v>
-      </c>
       <c r="C277" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B278" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="C278" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="C281" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B282" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="C282" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B283" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="C283" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B284" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="C284" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B286" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="C286" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B287" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="C287" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B288" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="C288" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="C290" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B291" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="C291" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B295" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="C295" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B296" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="C296" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B300" s="2" t="s">
-        <v>589</v>
-      </c>
       <c r="C300" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B302" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="C302" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D307" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E307" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E307" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C313" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="B327" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="C327" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C329" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>622</v>
-      </c>
       <c r="C330" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D330" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E330" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>624</v>
-      </c>
       <c r="C331" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B336" s="2" t="s">
-        <v>630</v>
-      </c>
       <c r="C336" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
